--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3817237.502554143</v>
+        <v>3814985.422842935</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292598</v>
@@ -713,19 +713,19 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>215.8536526006914</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826024</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>70.99506002739619</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>88.58584547962737</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>122.2882635917071</v>
       </c>
       <c r="F5" t="n">
-        <v>336.5978678801071</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677224</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>117.7126336312585</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606644</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>365.4412483366985</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677315</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>83.32727861849563</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695742</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>101.6969570046971</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2791.303412994536</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2791.303412994536</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2438.534757724422</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2438.534757724422</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.39542574861</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4431,28 +4431,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218339</v>
+        <v>138.2242982780382</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218339</v>
+        <v>138.2242982780382</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218339</v>
+        <v>138.2242982780382</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218339</v>
+        <v>138.2242982780382</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596504</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="V4" t="n">
-        <v>666.2025176122977</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="W4" t="n">
-        <v>376.7853475753371</v>
+        <v>319.8727631082779</v>
       </c>
       <c r="X4" t="n">
-        <v>287.3046955757135</v>
+        <v>319.8727631082779</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218339</v>
+        <v>319.8727631082779</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.807527238423</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="C5" t="n">
-        <v>1221.845010298011</v>
+        <v>1012.316163281154</v>
       </c>
       <c r="D5" t="n">
-        <v>863.5793116912607</v>
+        <v>654.0504646744037</v>
       </c>
       <c r="E5" t="n">
-        <v>863.5793116912607</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2884.252265792693</v>
       </c>
       <c r="W5" t="n">
-        <v>2741.012457539436</v>
+        <v>2531.483610522579</v>
       </c>
       <c r="X5" t="n">
-        <v>2367.546699278356</v>
+        <v>2158.017852261499</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.407367302545</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4638,10 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228005</v>
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596504</v>
@@ -4750,25 +4750,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>610.2994715124266</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2001.643962205202</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C8" t="n">
-        <v>1632.68144526479</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1274.41574665804</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>888.6274940597955</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>477.6415892701879</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883009</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539438</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269324</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.243802269324</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>2388.243802269324</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5419,28 +5419,28 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5513,28 +5513,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277355</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277355</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>363.7369613277355</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>196.5408620426154</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745237</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,13 +6476,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6552,16 +6552,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7078,16 +7078,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7400,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7491,19 +7491,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,22 +7725,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.18682368252064</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>38.5977558415268</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26074,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176758</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176753</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="K2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="M2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977558</v>
-      </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977554</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977556</v>
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.461807355</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.726386926748091e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687971</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687971</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="F4" t="n">
-        <v>15436.64000687958</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
+        <v>15436.64000687968</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15436.64000687968</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="H4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687969</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687972</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687971</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687969</v>
-      </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26522,46 @@
         <v>-729759.7047753623</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.04095223</v>
+        <v>598985.0409522299</v>
       </c>
       <c r="D6" t="n">
         <v>598985.0409522292</v>
       </c>
       <c r="E6" t="n">
-        <v>344996.3030596143</v>
+        <v>344961.5651341784</v>
       </c>
       <c r="F6" t="n">
-        <v>670408.7648669691</v>
+        <v>670374.0269415333</v>
       </c>
       <c r="G6" t="n">
-        <v>670408.764866969</v>
+        <v>670374.0269415332</v>
       </c>
       <c r="H6" t="n">
-        <v>670408.764866969</v>
+        <v>670374.0269415331</v>
       </c>
       <c r="I6" t="n">
-        <v>670408.7648669692</v>
+        <v>670374.026941533</v>
       </c>
       <c r="J6" t="n">
-        <v>452877.5624696917</v>
+        <v>452842.8245442561</v>
       </c>
       <c r="K6" t="n">
-        <v>670408.7648669692</v>
+        <v>670374.0269415334</v>
       </c>
       <c r="L6" t="n">
-        <v>670408.7648669687</v>
+        <v>670374.0269415335</v>
       </c>
       <c r="M6" t="n">
-        <v>585353.7369314573</v>
+        <v>585318.9990060215</v>
       </c>
       <c r="N6" t="n">
-        <v>670408.7648669691</v>
+        <v>670374.0269415332</v>
       </c>
       <c r="O6" t="n">
-        <v>670408.7648669691</v>
+        <v>670374.026941533</v>
       </c>
       <c r="P6" t="n">
-        <v>670408.7648669688</v>
+        <v>670374.0269415332</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022924</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483752</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>35.14151935821059</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734511</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>74.42598799553505</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>137.1238099094098</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>259.6421064805546</v>
       </c>
       <c r="F5" t="n">
-        <v>70.27817786160438</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351651</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27822,16 +27822,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>101.8363156449107</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103431</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>45.48047731675496</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351641</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>136.2216706576736</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.285915741704982e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28333,16 +28333,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,19 +28375,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>431.3680753731359</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,31 +32081,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908111</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32315,16 +32315,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,31 +33731,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,22 +34211,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,25 +34445,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>297.3936679588056</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121063</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463666</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,25 +38093,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
